--- a/use_browser/shortdbs.xlsx
+++ b/use_browser/shortdbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umsedumy-my.sharepoint.com/personal/balandong_ums_edu_my/Documents/Code Development/academic_paper_maker/use_browser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balan\IdeaProjects\academic_paper_maker\use_browser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{B7A2E4AC-6C57-47FD-8776-56723C970CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69122911-A34B-4A21-8408-D9396CA8051E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF9010B-6B32-4B6E-ACE8-9ED39C3B0B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{B337AAF7-00A6-4F20-940D-068F0C25C6C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B337AAF7-00A6-4F20-940D-068F0C25C6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,10 @@
     <t>pdf_path</t>
   </si>
   <si>
-    <t>C:\Users\rpb\OneDrive - ums.edu.my\research_related\0 eeg_trend_till24\eeg_review\A_Multi-Model_Analysis_for_Driving_Fatigue_Detection_using_EEG_Signals.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\rpb\OneDrive - ums.edu.my\research_related\0 eeg_trend_till24\eeg_review\Analysis_of_a_Backpropagation_Neural_Network_Training_Algorithm_for_EEG-Based_Drowsiness_Identification.pdf</t>
+    <t>C:\Users\balan\IdeaProjects\academic_paper_maker\ragpdf\test.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\balan\IdeaProjects\academic_paper_maker\ragpdf\test2.pdf</t>
   </si>
 </sst>
 </file>
@@ -560,13 +560,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BAD31C-62FC-401C-800D-B400D609B446}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45644</v>
       </c>
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>

--- a/use_browser/shortdbs.xlsx
+++ b/use_browser/shortdbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balan\IdeaProjects\academic_paper_maker\use_browser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF9010B-6B32-4B6E-ACE8-9ED39C3B0B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F906618-2945-4723-B96E-698C40365A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B337AAF7-00A6-4F20-940D-068F0C25C6C3}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B337AAF7-00A6-4F20-940D-068F0C25C6C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>author</t>
   </si>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BAD31C-62FC-401C-800D-B400D609B446}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +695,170 @@
         <v>35</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45644</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45644</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
